--- a/UserInfo/score.xlsx
+++ b/UserInfo/score.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -533,11 +533,19 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="0" t="n">
         <v>72.90000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>57.5</v>
       </c>
     </row>
   </sheetData>
